--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,14 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="553" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="553"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSheet" sheetId="1" r:id="rId1"/>
     <sheet name="CapturedObjectProperties" sheetId="14" r:id="rId2"/>
-    <sheet name="TC003_CV" sheetId="15" r:id="rId3"/>
-    <sheet name="TC002_DS" sheetId="13" r:id="rId4"/>
-    <sheet name="TC001_DS" sheetId="2" r:id="rId5"/>
+    <sheet name="TC001" sheetId="15" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -67,33 +65,9 @@
     <t>NA</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>TC001_DS.search</t>
-  </si>
-  <si>
-    <t>search</t>
-  </si>
-  <si>
     <t>TS1</t>
   </si>
   <si>
-    <t>visibleText</t>
-  </si>
-  <si>
-    <t>displayRecords</t>
-  </si>
-  <si>
-    <t>Date Published</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>last month</t>
-  </si>
-  <si>
     <t>Page</t>
   </si>
   <si>
@@ -103,66 +77,18 @@
     <t>Value</t>
   </si>
   <si>
-    <t>SEARCH_BOX</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>CLICK</t>
-  </si>
-  <si>
-    <t>click buttonfdgdf</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>TS2</t>
   </si>
   <si>
     <t>TS3</t>
   </si>
   <si>
-    <t>Kavya</t>
-  </si>
-  <si>
-    <t>fieldData</t>
-  </si>
-  <si>
-    <t>EnterText</t>
-  </si>
-  <si>
-    <t>ctl00_IdSparshHeader_g_a4214f27_bb08_407a_ab74_00670cd3e1c1_SB64DCC8_InputKeywords</t>
-  </si>
-  <si>
     <t>XPATH</t>
   </si>
   <si>
-    <t xml:space="preserve">//a [@id = 'ctl00_IdSparshHeader_g_a4214f27_bb08_407a_ab74_00670cd3e1c1_SB64DCC8_go']/img </t>
-  </si>
-  <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>ctl00$ListTab_1</t>
-  </si>
-  <si>
-    <t>ClickOnPeople</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
-    <t>TS4</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -187,25 +113,19 @@
     <t>login Password</t>
   </si>
   <si>
-    <t>TS5</t>
-  </si>
-  <si>
     <t>ClickLogin</t>
   </si>
   <si>
-    <t>TS6</t>
-  </si>
-  <si>
     <t>//button[contains(text(),'Log in')]</t>
   </si>
   <si>
-    <t>TC003_CV.username</t>
-  </si>
-  <si>
-    <t>TC003_CV.password</t>
-  </si>
-  <si>
     <t>admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>TC001.username</t>
+  </si>
+  <si>
+    <t>TC001.password</t>
   </si>
 </sst>
 </file>
@@ -256,11 +176,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -570,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -578,182 +495,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,130 +614,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="90.42578125" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.28515625" style="5"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="90.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>40</v>
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -899,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -910,120 +719,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>5000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1">
-        <v>200</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>TC001.password</t>
+  </si>
+  <si>
+    <t>Veify Dashboard</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>verifyDashboard</t>
+  </si>
+  <si>
+    <t>verifyText</t>
+  </si>
+  <si>
+    <t>TC001.title</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(),'Dashboard')]</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -487,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,6 +630,28 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -614,10 +660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -686,16 +732,30 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -706,7 +766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -717,7 +777,7 @@
     <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -727,8 +787,11 @@
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -737,6 +800,9 @@
       </c>
       <c r="C2" t="s">
         <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="553"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="553" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseSheet" sheetId="1" r:id="rId1"/>
     <sheet name="CapturedObjectProperties" sheetId="14" r:id="rId2"/>
     <sheet name="TC001" sheetId="15" r:id="rId3"/>
+    <sheet name="TC002" sheetId="16" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -150,6 +151,63 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Click Sales</t>
+  </si>
+  <si>
+    <t>TS5</t>
+  </si>
+  <si>
+    <t>clickSales</t>
+  </si>
+  <si>
+    <t>//li[@class="nav-item has-treeview"]/a/p[contains(text(),'Sales')]</t>
+  </si>
+  <si>
+    <t>Verify Orders link</t>
+  </si>
+  <si>
+    <t>TS6</t>
+  </si>
+  <si>
+    <t>isDisplayed</t>
+  </si>
+  <si>
+    <t>verifyOrdersLink</t>
+  </si>
+  <si>
+    <t>//p[contains(text(),'Orders')]</t>
+  </si>
+  <si>
+    <t>Click Orders link</t>
+  </si>
+  <si>
+    <t>TS7</t>
+  </si>
+  <si>
+    <t>clickOrdersLink</t>
+  </si>
+  <si>
+    <t>Verify Orders title</t>
+  </si>
+  <si>
+    <t>TS8</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>verifyOrdersTitle</t>
+  </si>
+  <si>
+    <t>TC002.title</t>
+  </si>
+  <si>
+    <t>//h1[contains(text(),'Orders')]</t>
   </si>
 </sst>
 </file>
@@ -519,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,6 +710,90 @@
         <v>38</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -660,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -746,16 +888,72 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -768,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -779,7 +977,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -803,6 +1001,29 @@
       </c>
       <c r="D2" t="s">
         <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
